--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stduestceducn-my.sharepoint.com/personal/2020150501029_std_uestc_edu_cn/Documents/Study/2024-01/CS5242/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33A6ACBE-4173-EB48-8AD4-C41EB9626A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{33A6ACBE-4173-EB48-8AD4-C41EB9626A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA6EC7F-BEE6-0D49-86B2-4E5D775FE2B9}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="6900" windowWidth="28040" windowHeight="17440" xr2:uid="{7F6C353E-C0C9-234E-9FCE-A5BA7FBB1E04}"/>
+    <workbookView xWindow="6340" yWindow="4100" windowWidth="28040" windowHeight="17440" xr2:uid="{7F6C353E-C0C9-234E-9FCE-A5BA7FBB1E04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,6 +100,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -117,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,21 +128,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,13 +477,13 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -488,533 +508,533 @@
       <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>0.61660000000000004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>0.129</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>0.21340000000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>0.64839999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>0.97250000000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>0.77800000000000002</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>0.22220000000000001</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="5">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>0.49569999999999997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>0.36820000000000003</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>0.83330000000000004</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>0.63219999999999998</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>0.99839999999999995</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>0.7742</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>0.2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>0.55520000000000003</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>0.3347</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="5">
         <v>0.26179999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>0.56369999999999998</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.42149999999999999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>0.69120000000000004</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>0.86650000000000005</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>0.76890000000000003</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>0.47170000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>0.23730000000000001</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="5">
         <v>0.31580000000000003</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>0.57550000000000001</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>0.48010000000000003</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="5">
         <v>0.50209999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>0.43259999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>0.5353</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>0.72450000000000003</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>0.87239999999999995</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0.79159999999999997</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>0.49</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>0.34970000000000001</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>0.40810000000000002</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>0.63880000000000003</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>0.55159999999999998</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="5">
         <v>0.57840000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>0.72270000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>0.59060000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>0.65</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>0.85309999999999997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>0.81379999999999997</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="5">
         <v>0.5383</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>0.46679999999999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <v>0.5</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>0.67969999999999997</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>0.63680000000000003</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <v>0.65459999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>0.4582</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>0.53810000000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>0.7389</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>0.84460000000000002</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>0.78820000000000001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>0.48420000000000002</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>0.41299999999999998</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>0.44579999999999997</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>0.62490000000000001</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>0.57189999999999996</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>0.5907</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>0.50819999999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>0.41189999999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0.69379999999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>0.82969999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>0.75570000000000004</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>0.41739999999999999</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="5">
         <v>0.1598</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <v>0.2311</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>0.53979999999999995</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>0.46710000000000002</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <v>0.48060000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>0.56789999999999996</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>0.35980000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>0.4405</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>0.69389999999999996</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>0.85629999999999995</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>0.76659999999999995</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="5">
         <v>0.41959999999999997</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <v>0.29310000000000003</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <v>0.5605</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>0.47970000000000002</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <v>0.4995</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>0.53569999999999995</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>0.44669999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>0.48709999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>0.71850000000000003</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>0.81769999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>0.76490000000000002</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="5">
         <v>0.48870000000000002</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="5">
         <v>0.307</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>0.37709999999999999</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>0.52380000000000004</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="5">
         <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>0.57069999999999999</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>0.39369999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.70750000000000002</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>0.84330000000000005</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>0.76839999999999997</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>0.46800000000000003</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>0.28960000000000002</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>0.35780000000000001</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>0.58150000000000002</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>0.50890000000000002</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>0.53069999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>0.54449999999999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>0.43509999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>0.48370000000000002</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>0.71970000000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>0.81920000000000004</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>0.76619999999999999</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>0.4703</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>0.32590000000000002</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>0.38500000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>0.57820000000000005</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>0.52680000000000005</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="5">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>0.57269999999999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0.42020000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0.48470000000000002</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0.71579999999999999</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>0.83699999999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>0.77159999999999995</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>0.48209999999999997</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="5">
         <v>0.3196</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="5">
         <v>0.38440000000000002</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>0.59019999999999995</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>0.52559999999999996</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="5">
         <v>0.54590000000000005</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stduestceducn-my.sharepoint.com/personal/2020150501029_std_uestc_edu_cn/Documents/Study/2024-01/CS5242/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{33A6ACBE-4173-EB48-8AD4-C41EB9626A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA6EC7F-BEE6-0D49-86B2-4E5D775FE2B9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{33A6ACBE-4173-EB48-8AD4-C41EB9626A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A424307-899A-9140-BB6C-D1ECC49297A7}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="4100" windowWidth="28040" windowHeight="17440" xr2:uid="{7F6C353E-C0C9-234E-9FCE-A5BA7FBB1E04}"/>
+    <workbookView xWindow="2200" yWindow="1020" windowWidth="28040" windowHeight="17440" xr2:uid="{7F6C353E-C0C9-234E-9FCE-A5BA7FBB1E04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,10 +101,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -147,19 +155,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,568 +484,621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF350069-17BE-DA4C-BD1B-ECB9A586405A}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>0.61660000000000004</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>0.129</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>0.21340000000000001</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.64839999999999998</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>0.97250000000000003</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>0.77800000000000002</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>0.22220000000000001</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="3">
         <v>0.49569999999999997</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <v>0.36820000000000003</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="3">
         <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>0.83330000000000004</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.63219999999999998</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>0.99839999999999995</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>0.7742</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0.2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="3">
         <v>0.55520000000000003</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <v>0.3347</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="3">
         <v>0.26179999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.56369999999999998</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>0.33660000000000001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>0.42149999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.69120000000000004</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.86650000000000005</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <v>0.76890000000000003</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>0.47170000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>0.23730000000000001</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>0.31580000000000003</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="3">
         <v>0.57550000000000001</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <v>0.48010000000000003</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="3">
         <v>0.50209999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.70199999999999996</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>0.5353</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.72450000000000003</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.87239999999999995</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <v>0.79159999999999997</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
         <v>0.49</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <v>0.34970000000000001</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>0.40810000000000002</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="3">
         <v>0.63880000000000003</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="3">
         <v>0.55159999999999998</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <v>0.57840000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.72270000000000001</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>0.59060000000000001</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>0.65</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>0.77800000000000002</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.85309999999999997</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>0.81379999999999997</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>0.5383</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>0.46679999999999999</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <v>0.5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>0.67969999999999997</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <v>0.63680000000000003</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="6">
         <v>0.65459999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.65180000000000005</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>0.4582</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.53810000000000002</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.7389</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.84460000000000002</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.78820000000000001</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="3">
         <v>0.48420000000000002</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="3">
         <v>0.41299999999999998</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>0.44579999999999997</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0.62490000000000001</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="3">
         <v>0.57189999999999996</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>0.5907</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.50819999999999999</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>0.41189999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>0.45500000000000002</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.69379999999999997</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.82969999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <v>0.75570000000000004</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
         <v>0.41739999999999999</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="3">
         <v>0.1598</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>0.2311</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="3">
         <v>0.53979999999999995</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="3">
         <v>0.46710000000000002</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="3">
         <v>0.48060000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>0.56789999999999996</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>0.35980000000000001</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>0.4405</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>0.69389999999999996</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.85629999999999995</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>0.76659999999999995</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>0.41959999999999997</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="3">
         <v>0.22309999999999999</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>0.29310000000000003</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="3">
         <v>0.5605</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="3">
         <v>0.47970000000000002</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="3">
         <v>0.4995</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>0.53569999999999995</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>0.44669999999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>0.48709999999999998</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>0.71850000000000003</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>0.81769999999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <v>0.76490000000000002</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
         <v>0.48870000000000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>0.307</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>0.37709999999999999</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="3">
         <v>0.58099999999999996</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="3">
         <v>0.52380000000000004</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="3">
         <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>0.57069999999999999</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>0.39369999999999999</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>0.47699999999999998</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="3">
         <v>0.70750000000000002</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>0.84330000000000005</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <v>0.76839999999999997</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>0.46800000000000003</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>0.28960000000000002</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>0.35780000000000001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="3">
         <v>0.58150000000000002</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="3">
         <v>0.50890000000000002</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="3">
         <v>0.53069999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>0.54449999999999998</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>0.43509999999999999</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>0.48370000000000002</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="3">
         <v>0.71970000000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>0.81920000000000004</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <v>0.76619999999999999</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
         <v>0.4703</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>0.32590000000000002</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>0.38500000000000001</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="3">
         <v>0.57820000000000005</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="3">
         <v>0.52680000000000005</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="3">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="3">
         <v>0.57269999999999999</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>0.42020000000000002</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>0.48470000000000002</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="3">
         <v>0.71579999999999999</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <v>0.83699999999999997</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>0.77159999999999995</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>0.48209999999999997</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>0.3196</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>0.38440000000000002</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="3">
         <v>0.59019999999999995</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="3">
         <v>0.52559999999999996</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="3">
         <v>0.54590000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <f>MAX(B3:B14)</f>
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" ref="C15:M15" si="0">MAX(C3:C14)</f>
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5383</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.46679999999999999</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.65459999999999996</v>
       </c>
     </row>
   </sheetData>
